--- a/chapter3/total.xlsx
+++ b/chapter3/total.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myproject\chapter3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB179DE-9FFF-42E5-A653-FCEBC51CB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C991801-ECE2-4199-A551-5191E5EE2993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="32인치 모니터" sheetId="2" r:id="rId2"/>
-    <sheet name="마우스 패드" sheetId="3" r:id="rId3"/>
-    <sheet name="게이밍 마우스" sheetId="4" r:id="rId4"/>
-    <sheet name="기계식 키보드" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>순번</t>
   </si>
@@ -399,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -821,384 +817,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>350000</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>350000</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>350000</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>350000</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>1750000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>350000</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>350000</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>350000</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>350000</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1750000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>350000</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>350000</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1400000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>20000</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>20000</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>20000</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>20000</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>20000</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>20000</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>20000</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>40000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>40000</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>40000</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>40000</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1">
-        <v>120000</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>120000</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>120000</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>600000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>